--- a/Datapools/interface.xlsx
+++ b/Datapools/interface.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yqtrack/test_project/Interface-Automation-Tags/Datapools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82548DB2-48FE-AB46-B9EF-C92F4DBD4C0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EAFA52-2988-0C4A-9B59-118C4E491006}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="4780" windowWidth="25500" windowHeight="12960"/>
+    <workbookView xWindow="43980" yWindow="5140" windowWidth="25500" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -92,9 +92,6 @@
     <t xml:space="preserve">no </t>
   </si>
   <si>
-    <t>data4</t>
-  </si>
-  <si>
     <t>Imooc-007</t>
   </si>
   <si>
@@ -122,22 +119,36 @@
     <t>Cookies</t>
   </si>
   <si>
-    <t>data8</t>
-  </si>
-  <si>
     <t>Imooc-001</t>
   </si>
   <si>
     <t>查询获取组合数据</t>
   </si>
   <si>
-    <t>data1</t>
+    <t>"data3"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"data4"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"data7"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"data8"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"data1"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -459,19 +470,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="10" width="8.83203125" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" customWidth="1"/>
+    <col min="4" max="10" width="8.83203125" customWidth="1"/>
     <col min="11" max="11" width="28.1640625" customWidth="1"/>
     <col min="12" max="256" width="8.83203125" customWidth="1"/>
   </cols>
@@ -534,7 +547,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>19</v>
@@ -561,18 +574,18 @@
         <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -584,22 +597,22 @@
         <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -611,31 +624,31 @@
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -647,10 +660,10 @@
         <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -667,7 +680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -749,13 +762,13 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -767,10 +780,10 @@
         <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="L3" s="1"/>
     </row>

--- a/Datapools/interface.xlsx
+++ b/Datapools/interface.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yqtrack/test_project/Interface-Automation-Tags/Datapools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EAFA52-2988-0C4A-9B59-118C4E491006}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C65FF7-ED92-654E-B649-CB12A971D19D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43980" yWindow="5140" windowWidth="25500" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40500" yWindow="4980" windowWidth="25500" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet下标是1来定位" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet下标从1开始定位" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -59,9 +59,6 @@
     <t>实际结果</t>
   </si>
   <si>
-    <t>Imooc-003</t>
-  </si>
-  <si>
     <t>购物车订单</t>
   </si>
   <si>
@@ -83,18 +80,12 @@
     <t>"errorCode": 1006</t>
   </si>
   <si>
-    <t>Imooc-004</t>
-  </si>
-  <si>
     <t>不执行</t>
   </si>
   <si>
     <t xml:space="preserve">no </t>
   </si>
   <si>
-    <t>Imooc-007</t>
-  </si>
-  <si>
     <t>登录</t>
   </si>
   <si>
@@ -107,41 +98,81 @@
     <t>"Code": 0</t>
   </si>
   <si>
-    <t>Imooc-008</t>
-  </si>
-  <si>
-    <t>获取访问历史</t>
-  </si>
-  <si>
-    <t>https://deals.17track.net/dealsapi/call</t>
-  </si>
-  <si>
     <t>Cookies</t>
   </si>
   <si>
-    <t>Imooc-001</t>
-  </si>
-  <si>
     <t>查询获取组合数据</t>
   </si>
   <si>
-    <t>"data3"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"data4"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"data7"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"data8"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"data1"</t>
+    <t>Iv-003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iv-004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv-007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv-008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv-001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv-003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code": -18019901</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取会员信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.17track.net/track/v1/register</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://business.17track.net/api-tracking/v1/getpaidreminder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://business.17track.net/api-tracking/v1/gettrackinglist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -163,6 +194,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -186,11 +224,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -477,14 +518,17 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="52.33203125" customWidth="1"/>
-    <col min="4" max="10" width="8.83203125" customWidth="1"/>
+    <col min="4" max="8" width="8.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
     <col min="11" max="11" width="28.1640625" customWidth="1"/>
     <col min="12" max="256" width="8.83203125" customWidth="1"/>
   </cols>
@@ -527,143 +571,152 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" ht="16">
       <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -687,12 +740,14 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D10:D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -735,55 +790,55 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="L3" s="1"/>
     </row>
